--- a/outputs/tables/mean_and_sem_brief.xlsx
+++ b/outputs/tables/mean_and_sem_brief.xlsx
@@ -639,40 +639,40 @@
         <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>3.566666666666666</v>
+        <v>3.567</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01666666666666676</v>
+        <v>0.017</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5856964241060265</v>
+        <v>0.586</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01395949963175941</v>
+        <v>0.014</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8111277819454864</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="J5" t="n">
-        <v>0.03065636601650415</v>
+        <v>0.031</v>
       </c>
       <c r="K5" t="n">
-        <v>0.908959531549554</v>
+        <v>0.909</v>
       </c>
       <c r="L5" t="n">
-        <v>0.033974868803479</v>
+        <v>0.034</v>
       </c>
       <c r="M5" t="n">
-        <v>0.9688838876385764</v>
+        <v>0.969</v>
       </c>
       <c r="N5" t="n">
-        <v>0.01066921678271859</v>
+        <v>0.011</v>
       </c>
       <c r="O5" t="n">
-        <v>0.9880147120113362</v>
+        <v>0.988</v>
       </c>
       <c r="P5" t="n">
-        <v>0.004620706560846196</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="6">
@@ -695,40 +695,40 @@
         <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>3.633333333333333</v>
+        <v>3.633</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01666666666666661</v>
+        <v>0.017</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6555901738033952</v>
+        <v>0.656</v>
       </c>
       <c r="H6" t="n">
-        <v>0.04700963984855749</v>
+        <v>0.047</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8840426748582461</v>
+        <v>0.884</v>
       </c>
       <c r="J6" t="n">
-        <v>0.051733496090553</v>
+        <v>0.052</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9391680329843445</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02838719316145618</v>
+        <v>0.028</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9834851491123437</v>
+        <v>0.983</v>
       </c>
       <c r="N6" t="n">
-        <v>0.006956062139357307</v>
+        <v>0.007</v>
       </c>
       <c r="O6" t="n">
-        <v>0.9958196032398398</v>
+        <v>0.996</v>
       </c>
       <c r="P6" t="n">
-        <v>6.611210349781738e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -751,40 +751,40 @@
         <v>5</v>
       </c>
       <c r="E7" t="n">
-        <v>3.133333333333333</v>
+        <v>3.133</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06666666666666674</v>
+        <v>0.067</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2616569836144734</v>
+        <v>0.262</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06383136664565213</v>
+        <v>0.064</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4682489403051309</v>
+        <v>0.468</v>
       </c>
       <c r="J7" t="n">
-        <v>0.07051946794820337</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5980990952849742</v>
+        <v>0.598</v>
       </c>
       <c r="L7" t="n">
-        <v>0.07043337337777501</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6932279844459067</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="N7" t="n">
-        <v>0.06584499095601708</v>
+        <v>0.066</v>
       </c>
       <c r="O7" t="n">
-        <v>0.7574144635385052</v>
+        <v>0.757</v>
       </c>
       <c r="P7" t="n">
-        <v>0.06275552971417674</v>
+        <v>0.063</v>
       </c>
     </row>
     <row r="8">
@@ -803,40 +803,40 @@
         <v>5</v>
       </c>
       <c r="E8" t="n">
-        <v>2.866666666666667</v>
+        <v>2.867</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.167</v>
       </c>
       <c r="G8" t="n">
-        <v>0.211578745243706</v>
+        <v>0.212</v>
       </c>
       <c r="H8" t="n">
-        <v>0.04008012117183655</v>
+        <v>0.04</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4718965825475561</v>
+        <v>0.472</v>
       </c>
       <c r="J8" t="n">
-        <v>0.03562110782453407</v>
+        <v>0.036</v>
       </c>
       <c r="K8" t="n">
-        <v>0.6232664680392368</v>
+        <v>0.623</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02125970045330115</v>
+        <v>0.021</v>
       </c>
       <c r="M8" t="n">
-        <v>0.7265051446575308</v>
+        <v>0.727</v>
       </c>
       <c r="N8" t="n">
-        <v>0.01523668688992821</v>
+        <v>0.015</v>
       </c>
       <c r="O8" t="n">
-        <v>0.7800734942530285</v>
+        <v>0.78</v>
       </c>
       <c r="P8" t="n">
-        <v>0.02439982530583565</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="9">
@@ -851,40 +851,40 @@
         <v>5</v>
       </c>
       <c r="E9" t="n">
-        <v>5.100000000000001</v>
+        <v>5.1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05773502691896263</v>
+        <v>0.058</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4983430479613686</v>
+        <v>0.498</v>
       </c>
       <c r="H9" t="n">
-        <v>0.04082249577650276</v>
+        <v>0.041</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7382021427822955</v>
+        <v>0.738</v>
       </c>
       <c r="J9" t="n">
-        <v>0.04050828773957967</v>
+        <v>0.041</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8724221777656892</v>
+        <v>0.872</v>
       </c>
       <c r="L9" t="n">
-        <v>0.04689197843099319</v>
+        <v>0.047</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9394200653742639</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="N9" t="n">
-        <v>0.02923728431164176</v>
+        <v>0.029</v>
       </c>
       <c r="O9" t="n">
-        <v>0.9817315847850199</v>
+        <v>0.982</v>
       </c>
       <c r="P9" t="n">
-        <v>0.01242228076159087</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="10">
@@ -903,40 +903,40 @@
         <v>5</v>
       </c>
       <c r="E10" t="n">
-        <v>2.733333333333333</v>
+        <v>2.733</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01666666666666661</v>
+        <v>0.017</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3338275004171787</v>
+        <v>0.334</v>
       </c>
       <c r="H10" t="n">
-        <v>0.08564408160296037</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5337288945524052</v>
+        <v>0.534</v>
       </c>
       <c r="J10" t="n">
-        <v>0.08025302461119295</v>
+        <v>0.08</v>
       </c>
       <c r="K10" t="n">
-        <v>0.7092507471290523</v>
+        <v>0.709</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1047976543816248</v>
+        <v>0.105</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7881217858280617</v>
+        <v>0.788</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0950950984137965</v>
+        <v>0.095</v>
       </c>
       <c r="O10" t="n">
-        <v>0.8505855671354238</v>
+        <v>0.851</v>
       </c>
       <c r="P10" t="n">
-        <v>0.08399255130521296</v>
+        <v>0.08400000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -965,34 +965,34 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6612499319505689</v>
+        <v>0.661</v>
       </c>
       <c r="H11" t="n">
-        <v>0.08911353173525373</v>
+        <v>0.089</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8443671402907071</v>
+        <v>0.844</v>
       </c>
       <c r="J11" t="n">
-        <v>0.05808301533286093</v>
+        <v>0.058</v>
       </c>
       <c r="K11" t="n">
-        <v>0.9190260765420001</v>
+        <v>0.919</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03890368674043798</v>
+        <v>0.039</v>
       </c>
       <c r="M11" t="n">
-        <v>0.9522369208993413</v>
+        <v>0.952</v>
       </c>
       <c r="N11" t="n">
-        <v>0.02228680740965125</v>
+        <v>0.022</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9842065436332952</v>
+        <v>0.984</v>
       </c>
       <c r="P11" t="n">
-        <v>0.007314734579219944</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="12">
@@ -1037,40 +1037,40 @@
         <v>3</v>
       </c>
       <c r="E13" t="n">
-        <v>3.666666666666667</v>
+        <v>3.667</v>
       </c>
       <c r="F13" t="n">
-        <v>0.04409585518440983</v>
+        <v>0.044</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5686281141244377</v>
+        <v>0.569</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1321378832245702</v>
+        <v>0.132</v>
       </c>
       <c r="I13" t="n">
-        <v>0.8288789947797301</v>
+        <v>0.829</v>
       </c>
       <c r="J13" t="n">
-        <v>0.08325638553380656</v>
+        <v>0.083</v>
       </c>
       <c r="K13" t="n">
-        <v>0.9370470726169255</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="L13" t="n">
-        <v>0.05079860848727171</v>
+        <v>0.051</v>
       </c>
       <c r="M13" t="n">
-        <v>0.9829154199558611</v>
+        <v>0.983</v>
       </c>
       <c r="N13" t="n">
-        <v>0.01106943831753875</v>
+        <v>0.011</v>
       </c>
       <c r="O13" t="n">
-        <v>0.9932336097317714</v>
+        <v>0.993</v>
       </c>
       <c r="P13" t="n">
-        <v>0.002919525852876693</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="14">
@@ -1096,37 +1096,37 @@
         <v>3.6</v>
       </c>
       <c r="F14" t="n">
-        <v>0.05000000000000012</v>
+        <v>0.05</v>
       </c>
       <c r="G14" t="n">
-        <v>0.7085687076716826</v>
+        <v>0.709</v>
       </c>
       <c r="H14" t="n">
-        <v>0.03158426480567398</v>
+        <v>0.032</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8693556156530985</v>
+        <v>0.869</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0425128198899935</v>
+        <v>0.043</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9485276101980907</v>
+        <v>0.949</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02434747726896511</v>
+        <v>0.024</v>
       </c>
       <c r="M14" t="n">
-        <v>0.9865538219725862</v>
+        <v>0.987</v>
       </c>
       <c r="N14" t="n">
-        <v>0.009277754583054834</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9945538219725862</v>
+        <v>0.995</v>
       </c>
       <c r="P14" t="n">
-        <v>0.001283025456764038</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="15">
@@ -1149,40 +1149,40 @@
         <v>3</v>
       </c>
       <c r="E15" t="n">
-        <v>1.116666666666667</v>
+        <v>1.117</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09279607271383372</v>
+        <v>0.093</v>
       </c>
       <c r="G15" t="n">
-        <v>0.06546235299679315</v>
+        <v>0.065</v>
       </c>
       <c r="H15" t="n">
-        <v>0.03220512572419684</v>
+        <v>0.032</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.06546212351046159</v>
+        <v>-0.065</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1819028712178001</v>
+        <v>0.182</v>
       </c>
       <c r="K15" t="n">
-        <v>0.01028190559942059</v>
+        <v>0.01</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1931429257170823</v>
+        <v>0.193</v>
       </c>
       <c r="M15" t="n">
-        <v>0.06878412939846894</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="N15" t="n">
-        <v>0.2570040372978252</v>
+        <v>0.257</v>
       </c>
       <c r="O15" t="n">
-        <v>0.05952037815675659</v>
+        <v>0.06</v>
       </c>
       <c r="P15" t="n">
-        <v>0.2631955945990094</v>
+        <v>0.263</v>
       </c>
     </row>
   </sheetData>
